--- a/Arif-0718/Arif-0718.xlsx
+++ b/Arif-0718/Arif-0718.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scraping\Don Osterloh\Scraping data\Arif-0718\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E3895-2495-43A3-890E-ED9567738638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49939F-E625-4DBE-A022-5ABDC02BFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -158,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,41 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Eurostile"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Eurostile"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Eurostile"/>
       <charset val="134"/>
     </font>
@@ -213,25 +191,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Eurostile"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,6 +222,7 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="Eurostile"/>
       <charset val="134"/>
     </font>
@@ -246,13 +230,13 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,7 +251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,79 +290,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,15 +636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="7" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,262 +671,262 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="7">
         <v>90.154600000000002</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="10">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="7">
         <v>90.154700000000005</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="14">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="7">
         <v>90.154799999999994</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="18">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="7">
         <v>90.154899999999998</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="21">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="11">
         <v>90.155000000000001</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="3">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="7">
         <v>90.155100000000004</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="3">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="5">
         <v>90.155199999999994</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="3">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="16">
         <v>90.155299999999997</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="3">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="5">
         <v>90.1554</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="3">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="5">
         <v>90.155500000000004</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="3">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="16">
         <v>90.155600000000007</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="3">
         <v>90.155699999999996</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="3">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="16">
         <v>90.155799999999999</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="3">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="16">
         <v>90.155900000000003</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="6">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="20">
         <v>90.156000000000006</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -953,9 +937,17 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{62FF9909-5501-46E9-84AF-C2253C594A84}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{D1223584-A6B8-45E2-8DBE-C58C27B29299}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{2133E3DA-E159-472A-9D75-A258033EC5A6}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{E0625F10-07F5-42C0-A7B2-AE0AB001851C}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{C704E41C-A87F-4474-9A9F-EDA404300BEA}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{34E2C6C5-C486-4B2C-9F87-FA957E2931F0}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{BDBF170A-7833-43DC-8CF8-19EF6FD084EB}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{38C3031F-BDB1-4914-900C-C030FFB9978E}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A223324A-1F5A-4D0E-A7D3-CBC3989F89FD}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{1B202336-FB5B-41BD-BDC1-17D9E0BF4BBC}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{2F59CAB0-B207-41BA-B9E0-B02D84000B71}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
